--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,11 +26,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态增加权重</t>
+    <t>N回合出现随机池刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N回合出现随机池刷新</t>
+    <t>大类型动态增加权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类型动态增加权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -401,7 +405,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -412,7 +416,18 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,22 @@
   </si>
   <si>
     <t>小类型动态增加权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方未明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷月轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫紫绫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -428,6 +445,50 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="A5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>878262</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>878263</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B8">
+        <v>878265</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -74,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +84,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,7 +408,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -451,8 +458,8 @@
       <c r="A5" s="2">
         <v>1004</v>
       </c>
-      <c r="B5" s="2">
-        <v>200000</v>
+      <c r="B5" s="3">
+        <v>100091</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -462,8 +469,8 @@
       <c r="A6" s="2">
         <v>1005</v>
       </c>
-      <c r="B6">
-        <v>878262</v>
+      <c r="B6" s="3">
+        <v>100134</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -473,8 +480,8 @@
       <c r="A7" s="2">
         <v>1006</v>
       </c>
-      <c r="B7">
-        <v>878263</v>
+      <c r="B7" s="3">
+        <v>100135</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -484,8 +491,8 @@
       <c r="A8" s="2">
         <v>1007</v>
       </c>
-      <c r="B8">
-        <v>878265</v>
+      <c r="B8" s="3">
+        <v>100297</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>

--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467392FC-91B8-4369-A8EB-5659F12D0154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +90,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -117,13 +117,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,9 +238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,16 +414,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A5" sqref="A5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -432,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -443,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -454,47 +464,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="3">
-        <v>100091</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="3">
-        <v>100134</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>878262</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="3">
-        <v>100135</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>878263</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="3">
-        <v>100297</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>878265</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -506,12 +516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -519,12 +529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467392FC-91B8-4369-A8EB-5659F12D0154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBFEC76-629F-4D80-B036-73DF4627AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -418,7 +418,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -1,81 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBFEC76-629F-4D80-B036-73DF4627AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>#ID</t>
   </si>
   <si>
     <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N回合出现随机池刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大类型动态增加权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小类型动态增加权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫紫绫</t>
   </si>
   <si>
     <t>东方未明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>谷月轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荆棘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫紫绫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,12 +243,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,26 +442,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,21 +1034,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -442,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -453,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -464,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -472,10 +1097,10 @@
         <v>200000</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -483,10 +1108,10 @@
         <v>878262</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -494,10 +1119,10 @@
         <v>878263</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -505,38 +1130,44 @@
         <v>878265</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF752CF-7257-4D75-8D82-B6E3FE777512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E79D167-1301-4198-8EA0-3A4AB1356DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>参数</t>
   </si>
   <si>
-    <t>N回合出现随机池刷新</t>
-  </si>
-  <si>
     <t>大类型动态增加权重</t>
   </si>
   <si>
@@ -49,13 +46,17 @@
   </si>
   <si>
     <t>荆棘</t>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -103,10 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,7 +424,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -434,8 +444,8 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -446,7 +456,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -457,7 +467,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -468,7 +478,7 @@
         <v>200000</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -479,7 +489,7 @@
         <v>878262</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -490,7 +500,7 @@
         <v>878263</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -501,7 +511,7 @@
         <v>878265</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/全局表.xlsx
+++ b/Excel文件/全局表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E79D167-1301-4198-8EA0-3A4AB1356DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C3C3E-DEE2-4785-850D-17329907EDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,7 +453,7 @@
         <v>1002</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -464,7 +464,7 @@
         <v>1003</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
